--- a/FeynmanEquations.xlsx
+++ b/FeynmanEquations.xlsx
@@ -1047,7 +1047,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,6 +1058,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1094,13 +1100,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1567,7 +1573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1602,25 +1608,25 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -1661,25 +1667,25 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1726,25 +1732,25 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1797,25 +1803,25 @@
         <v>5</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1922,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -1963,25 +1969,25 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
       <c r="AD7" s="1"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -2052,19 +2058,19 @@
         <v>5</v>
       </c>
       <c r="X8" s="1"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
       <c r="AD8" s="1"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2105,25 +2111,25 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
@@ -2176,25 +2182,25 @@
         <v>5</v>
       </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
@@ -2241,25 +2247,25 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2300,25 +2306,25 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
@@ -2380,22 +2386,22 @@
         <v>5</v>
       </c>
       <c r="U13" s="1"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
       <c r="AD13" s="1"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>90</v>
       </c>
@@ -2448,25 +2454,25 @@
         <v>5</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>95</v>
       </c>
@@ -2528,22 +2534,22 @@
         <v>5</v>
       </c>
       <c r="U15" s="1"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
       <c r="AD15" s="1"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -2590,25 +2596,25 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
       <c r="AD16" s="1"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>104</v>
       </c>
@@ -2649,25 +2655,25 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
       <c r="AD17" s="1"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
@@ -2720,25 +2726,25 @@
         <v>2</v>
       </c>
       <c r="R18" s="1"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
       <c r="AD18" s="1"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
@@ -2791,25 +2797,25 @@
         <v>5</v>
       </c>
       <c r="R19" s="1"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
       <c r="AD19" s="1"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
@@ -2856,25 +2862,25 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
       <c r="AD20" s="1"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
@@ -2921,25 +2927,25 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
       <c r="AD21" s="1"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>120</v>
       </c>
@@ -2992,25 +2998,25 @@
         <v>5</v>
       </c>
       <c r="R22" s="1"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>122</v>
       </c>
@@ -3057,25 +3063,25 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
       <c r="AA23" s="1"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>125</v>
       </c>
@@ -3128,25 +3134,25 @@
         <v>5</v>
       </c>
       <c r="R24" s="1"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
       <c r="AA24" s="1"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
       <c r="AD24" s="1"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -3199,25 +3205,25 @@
         <v>3</v>
       </c>
       <c r="R25" s="1"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
       <c r="X25" s="1"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
@@ -3258,25 +3264,25 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="1"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>137</v>
       </c>
@@ -3317,25 +3323,25 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
       <c r="X27" s="1"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
       <c r="AD27" s="1"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -3382,25 +3388,25 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
       <c r="X28" s="1"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
       <c r="AD28" s="1"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -3441,25 +3447,25 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
       <c r="U29" s="1"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
       <c r="X29" s="1"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
       <c r="AD29" s="1"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>149</v>
       </c>
@@ -3512,25 +3518,25 @@
         <v>5</v>
       </c>
       <c r="R30" s="1"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
       <c r="AD30" s="1"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
@@ -3577,25 +3583,25 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
       <c r="X31" s="1"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
       <c r="AD31" s="1"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>155</v>
       </c>
@@ -3642,25 +3648,25 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
       <c r="AD32" s="1"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>158</v>
       </c>
@@ -3713,20 +3719,20 @@
         <v>5</v>
       </c>
       <c r="R33" s="1"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
@@ -3802,14 +3808,14 @@
         <v>5</v>
       </c>
       <c r="X34" s="1"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
       <c r="AA34" s="1"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
       <c r="AD34" s="1"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
@@ -3867,20 +3873,20 @@
         <v>5</v>
       </c>
       <c r="R35" s="1"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
       <c r="X35" s="1"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
       <c r="AD35" s="1"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
@@ -3932,20 +3938,20 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
       <c r="X36" s="1"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
       <c r="AA36" s="1"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
       <c r="AD36" s="1"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
@@ -3997,20 +4003,20 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
       <c r="X37" s="1"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
       <c r="AA37" s="1"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
@@ -4056,20 +4062,20 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
       <c r="X38" s="1"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
       <c r="AD38" s="1"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -4121,20 +4127,20 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
       <c r="X39" s="1"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
       <c r="AA39" s="1"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
       <c r="AD39" s="1"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
@@ -4192,20 +4198,20 @@
         <v>5</v>
       </c>
       <c r="R40" s="1"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
       <c r="X40" s="1"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
       <c r="AD40" s="1"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
@@ -4251,20 +4257,20 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
       <c r="AD41" s="1"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
@@ -4316,20 +4322,20 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
       <c r="AD42" s="1"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
@@ -4387,20 +4393,20 @@
         <v>5</v>
       </c>
       <c r="R43" s="1"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
       <c r="U43" s="1"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
       <c r="AD43" s="1"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
@@ -4476,14 +4482,14 @@
         <v>5</v>
       </c>
       <c r="X44" s="1"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
       <c r="AA44" s="1"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
       <c r="AD44" s="1"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
@@ -4550,17 +4556,17 @@
         <v>5</v>
       </c>
       <c r="U45" s="1"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
       <c r="AA45" s="1"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
       <c r="AD45" s="1"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
@@ -4618,20 +4624,20 @@
         <v>5</v>
       </c>
       <c r="R46" s="1"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
       <c r="AA46" s="1"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
       <c r="AD46" s="1"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
@@ -4683,20 +4689,20 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
       <c r="AA47" s="1"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
       <c r="AD47" s="1"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
@@ -4754,20 +4760,20 @@
         <v>5</v>
       </c>
       <c r="R48" s="1"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
       <c r="U48" s="1"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
       <c r="AA48" s="1"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
       <c r="AD48" s="1"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
@@ -4834,17 +4840,17 @@
         <v>5</v>
       </c>
       <c r="U49" s="1"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
       <c r="AA49" s="1"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
       <c r="AD49" s="1"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
@@ -4896,20 +4902,20 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
       <c r="U50" s="1"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
       <c r="AA50" s="1"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
       <c r="AD50" s="1"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
@@ -4961,20 +4967,20 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
       <c r="AA51" s="1"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
       <c r="AD51" s="1"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
@@ -5032,20 +5038,20 @@
         <v>3</v>
       </c>
       <c r="R52" s="1"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
       <c r="AA52" s="1"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
       <c r="AD52" s="1"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
@@ -5112,17 +5118,17 @@
         <v>5</v>
       </c>
       <c r="U53" s="1"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
       <c r="AA53" s="1"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
       <c r="AD53" s="1"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
@@ -5168,20 +5174,20 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="1"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
       <c r="U54" s="1"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
       <c r="AA54" s="1"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
       <c r="AD54" s="1"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
@@ -5233,20 +5239,20 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="1"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
       <c r="U55" s="1"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
       <c r="AA55" s="1"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
       <c r="AD55" s="1"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
@@ -5304,20 +5310,20 @@
         <v>3</v>
       </c>
       <c r="R56" s="1"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
       <c r="AA56" s="1"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
       <c r="AD56" s="1"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
@@ -5393,14 +5399,14 @@
         <v>3</v>
       </c>
       <c r="X57" s="1"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
       <c r="AA57" s="1"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
       <c r="AD57" s="1"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
@@ -5458,20 +5464,20 @@
         <v>3</v>
       </c>
       <c r="R58" s="1"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
       <c r="AD58" s="1"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
@@ -5523,20 +5529,20 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="1"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
       <c r="U59" s="1"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
       <c r="AA59" s="1"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
       <c r="AD59" s="1"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
@@ -5582,20 +5588,20 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
       <c r="U60" s="1"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
       <c r="AA60" s="1"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
       <c r="AD60" s="1"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
@@ -5647,20 +5653,20 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
       <c r="U61" s="1"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
       <c r="AA61" s="1"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
       <c r="AD61" s="1"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
@@ -5727,17 +5733,17 @@
         <v>2</v>
       </c>
       <c r="U62" s="1"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
       <c r="AA62" s="1"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
       <c r="AD62" s="1"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
@@ -5813,14 +5819,14 @@
         <v>3</v>
       </c>
       <c r="X63" s="1"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
       <c r="AA63" s="1"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
       <c r="AD63" s="1"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
@@ -5887,17 +5893,17 @@
         <v>5</v>
       </c>
       <c r="U64" s="1"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
       <c r="AA64" s="1"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
       <c r="AD64" s="1"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
@@ -5955,20 +5961,20 @@
         <v>2</v>
       </c>
       <c r="R65" s="1"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
       <c r="AA65" s="1"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
       <c r="AD65" s="1"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
@@ -6014,20 +6020,20 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="1"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
       <c r="AA66" s="1"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
       <c r="AD66" s="1"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
@@ -6085,20 +6091,20 @@
         <v>5</v>
       </c>
       <c r="R67" s="1"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
       <c r="AA67" s="1"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
       <c r="AD67" s="1"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
@@ -6150,20 +6156,20 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="1"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
       <c r="AA68" s="1"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
       <c r="AD68" s="1"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
@@ -6215,20 +6221,20 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="1"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
       <c r="U69" s="1"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
       <c r="AA69" s="1"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
       <c r="AD69" s="1"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
@@ -6280,20 +6286,20 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
       <c r="R70" s="1"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
       <c r="U70" s="1"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
       <c r="X70" s="1"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
       <c r="AA70" s="1"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
       <c r="AD70" s="1"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="3"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
@@ -6345,20 +6351,20 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="1"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="1"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="3"/>
-      <c r="Z71" s="3"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
       <c r="AA71" s="1"/>
-      <c r="AB71" s="3"/>
-      <c r="AC71" s="3"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
       <c r="AD71" s="1"/>
-      <c r="AE71" s="3"/>
-      <c r="AF71" s="3"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
@@ -6425,17 +6431,17 @@
         <v>10</v>
       </c>
       <c r="U72" s="1"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
       <c r="AA72" s="1"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
       <c r="AD72" s="1"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
@@ -6487,20 +6493,20 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
       <c r="AA73" s="1"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
       <c r="AD73" s="1"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
@@ -6552,20 +6558,20 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
       <c r="U74" s="1"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
       <c r="AA74" s="1"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
       <c r="AD74" s="1"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
@@ -6611,20 +6617,20 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
       <c r="U75" s="1"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
       <c r="AA75" s="1"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
       <c r="AD75" s="1"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
@@ -6676,20 +6682,20 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
       <c r="U76" s="1"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
       <c r="AA76" s="1"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
       <c r="AD76" s="1"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
@@ -6741,20 +6747,20 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
       <c r="U77" s="1"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
       <c r="X77" s="1"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
       <c r="AA77" s="1"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
       <c r="AD77" s="1"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
@@ -6812,20 +6818,20 @@
         <v>5</v>
       </c>
       <c r="R78" s="1"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
       <c r="U78" s="1"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
       <c r="X78" s="1"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
       <c r="AA78" s="1"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
       <c r="AD78" s="1"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
@@ -6877,20 +6883,20 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
       <c r="U79" s="1"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
       <c r="X79" s="1"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
       <c r="AA79" s="1"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
       <c r="AD79" s="1"/>
-      <c r="AE79" s="3"/>
-      <c r="AF79" s="3"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
@@ -6957,17 +6963,17 @@
         <v>5</v>
       </c>
       <c r="U80" s="1"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
       <c r="X80" s="1"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
       <c r="AA80" s="1"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
       <c r="AD80" s="1"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
@@ -7034,17 +7040,17 @@
         <v>3</v>
       </c>
       <c r="U81" s="1"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
       <c r="X81" s="1"/>
-      <c r="Y81" s="3"/>
-      <c r="Z81" s="3"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
       <c r="AA81" s="1"/>
-      <c r="AB81" s="3"/>
-      <c r="AC81" s="3"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
       <c r="AD81" s="1"/>
-      <c r="AE81" s="3"/>
-      <c r="AF81" s="3"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
@@ -7111,17 +7117,17 @@
         <v>5</v>
       </c>
       <c r="U82" s="1"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
       <c r="X82" s="1"/>
-      <c r="Y82" s="3"/>
-      <c r="Z82" s="3"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
       <c r="AA82" s="1"/>
-      <c r="AB82" s="3"/>
-      <c r="AC82" s="3"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
       <c r="AD82" s="1"/>
-      <c r="AE82" s="3"/>
-      <c r="AF82" s="3"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
@@ -7215,8 +7221,8 @@
         <v>3</v>
       </c>
       <c r="AD83" s="1"/>
-      <c r="AE83" s="3"/>
-      <c r="AF83" s="3"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
@@ -7268,20 +7274,20 @@
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
       <c r="R84" s="1"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
       <c r="U84" s="1"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="3"/>
-      <c r="Z84" s="3"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
       <c r="AA84" s="1"/>
-      <c r="AB84" s="3"/>
-      <c r="AC84" s="3"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
       <c r="AD84" s="1"/>
-      <c r="AE84" s="3"/>
-      <c r="AF84" s="3"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
@@ -7339,20 +7345,20 @@
         <v>5</v>
       </c>
       <c r="R85" s="1"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
       <c r="U85" s="1"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="3"/>
-      <c r="Z85" s="3"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
       <c r="AA85" s="1"/>
-      <c r="AB85" s="3"/>
-      <c r="AC85" s="3"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
       <c r="AD85" s="1"/>
-      <c r="AE85" s="3"/>
-      <c r="AF85" s="3"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
@@ -7398,20 +7404,20 @@
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
       <c r="R86" s="1"/>
-      <c r="S86" s="3"/>
-      <c r="T86" s="3"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
       <c r="U86" s="1"/>
-      <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
       <c r="X86" s="1"/>
-      <c r="Y86" s="3"/>
-      <c r="Z86" s="3"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
       <c r="AA86" s="1"/>
-      <c r="AB86" s="3"/>
-      <c r="AC86" s="3"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
       <c r="AD86" s="1"/>
-      <c r="AE86" s="3"/>
-      <c r="AF86" s="3"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
@@ -7469,20 +7475,20 @@
         <v>5</v>
       </c>
       <c r="R87" s="1"/>
-      <c r="S87" s="3"/>
-      <c r="T87" s="3"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
       <c r="U87" s="1"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="3"/>
-      <c r="Z87" s="3"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
       <c r="AA87" s="1"/>
-      <c r="AB87" s="3"/>
-      <c r="AC87" s="3"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
       <c r="AD87" s="1"/>
-      <c r="AE87" s="3"/>
-      <c r="AF87" s="3"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
@@ -7540,20 +7546,20 @@
         <v>5</v>
       </c>
       <c r="R88" s="1"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
       <c r="U88" s="1"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
       <c r="AA88" s="1"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
       <c r="AD88" s="1"/>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="3"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
@@ -7605,20 +7611,20 @@
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
       <c r="R89" s="1"/>
-      <c r="S89" s="3"/>
-      <c r="T89" s="3"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
       <c r="U89" s="1"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="3"/>
-      <c r="Z89" s="3"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
       <c r="AA89" s="1"/>
-      <c r="AB89" s="3"/>
-      <c r="AC89" s="3"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
       <c r="AD89" s="1"/>
-      <c r="AE89" s="3"/>
-      <c r="AF89" s="3"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
@@ -7670,20 +7676,20 @@
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="1"/>
-      <c r="S90" s="3"/>
-      <c r="T90" s="3"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
       <c r="U90" s="1"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="3"/>
-      <c r="Z90" s="3"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
       <c r="AA90" s="1"/>
-      <c r="AB90" s="3"/>
-      <c r="AC90" s="3"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
       <c r="AD90" s="1"/>
-      <c r="AE90" s="3"/>
-      <c r="AF90" s="3"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
@@ -7759,14 +7765,14 @@
         <v>5</v>
       </c>
       <c r="X91" s="1"/>
-      <c r="Y91" s="3"/>
-      <c r="Z91" s="3"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
       <c r="AA91" s="1"/>
-      <c r="AB91" s="3"/>
-      <c r="AC91" s="3"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
       <c r="AD91" s="1"/>
-      <c r="AE91" s="3"/>
-      <c r="AF91" s="3"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
@@ -7824,20 +7830,20 @@
         <v>5</v>
       </c>
       <c r="R92" s="1"/>
-      <c r="S92" s="3"/>
-      <c r="T92" s="3"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
       <c r="U92" s="1"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="3"/>
-      <c r="Z92" s="3"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
       <c r="AA92" s="1"/>
-      <c r="AB92" s="3"/>
-      <c r="AC92" s="3"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
       <c r="AD92" s="1"/>
-      <c r="AE92" s="3"/>
-      <c r="AF92" s="3"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2"/>
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
@@ -7883,20 +7889,20 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
       <c r="R93" s="1"/>
-      <c r="S93" s="3"/>
-      <c r="T93" s="3"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
       <c r="U93" s="1"/>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
       <c r="X93" s="1"/>
-      <c r="Y93" s="3"/>
-      <c r="Z93" s="3"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
       <c r="AA93" s="1"/>
-      <c r="AB93" s="3"/>
-      <c r="AC93" s="3"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
       <c r="AD93" s="1"/>
-      <c r="AE93" s="3"/>
-      <c r="AF93" s="3"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
@@ -7954,20 +7960,20 @@
         <v>5</v>
       </c>
       <c r="R94" s="1"/>
-      <c r="S94" s="3"/>
-      <c r="T94" s="3"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
       <c r="U94" s="1"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="3"/>
-      <c r="Z94" s="3"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
       <c r="AA94" s="1"/>
-      <c r="AB94" s="3"/>
-      <c r="AC94" s="3"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
       <c r="AD94" s="1"/>
-      <c r="AE94" s="3"/>
-      <c r="AF94" s="3"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
@@ -8034,17 +8040,17 @@
         <v>2</v>
       </c>
       <c r="U95" s="1"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
       <c r="X95" s="1"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
       <c r="AA95" s="1"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
       <c r="AD95" s="1"/>
-      <c r="AE95" s="3"/>
-      <c r="AF95" s="3"/>
+      <c r="AE95" s="2"/>
+      <c r="AF95" s="2"/>
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
@@ -8096,20 +8102,20 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
       <c r="R96" s="1"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
       <c r="U96" s="1"/>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
       <c r="AA96" s="1"/>
-      <c r="AB96" s="3"/>
-      <c r="AC96" s="3"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
       <c r="AD96" s="1"/>
-      <c r="AE96" s="3"/>
-      <c r="AF96" s="3"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2"/>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
@@ -8161,20 +8167,20 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
       <c r="R97" s="1"/>
-      <c r="S97" s="3"/>
-      <c r="T97" s="3"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="3"/>
-      <c r="Z97" s="3"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
       <c r="AA97" s="1"/>
-      <c r="AB97" s="3"/>
-      <c r="AC97" s="3"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
       <c r="AD97" s="1"/>
-      <c r="AE97" s="3"/>
-      <c r="AF97" s="3"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
@@ -8226,20 +8232,20 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
       <c r="R98" s="1"/>
-      <c r="S98" s="3"/>
-      <c r="T98" s="3"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
       <c r="U98" s="1"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="3"/>
-      <c r="Z98" s="3"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
       <c r="AA98" s="1"/>
-      <c r="AB98" s="3"/>
-      <c r="AC98" s="3"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
       <c r="AD98" s="1"/>
-      <c r="AE98" s="3"/>
-      <c r="AF98" s="3"/>
+      <c r="AE98" s="2"/>
+      <c r="AF98" s="2"/>
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
@@ -8291,20 +8297,20 @@
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
       <c r="R99" s="1"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
       <c r="U99" s="1"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
       <c r="X99" s="1"/>
-      <c r="Y99" s="3"/>
-      <c r="Z99" s="3"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
       <c r="AA99" s="1"/>
-      <c r="AB99" s="3"/>
-      <c r="AC99" s="3"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
       <c r="AD99" s="1"/>
-      <c r="AE99" s="3"/>
-      <c r="AF99" s="3"/>
+      <c r="AE99" s="2"/>
+      <c r="AF99" s="2"/>
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
@@ -8371,17 +8377,17 @@
         <v>5</v>
       </c>
       <c r="U100" s="1"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
       <c r="AA100" s="1"/>
-      <c r="AB100" s="3"/>
-      <c r="AC100" s="3"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
       <c r="AD100" s="1"/>
-      <c r="AE100" s="3"/>
-      <c r="AF100" s="3"/>
+      <c r="AE100" s="2"/>
+      <c r="AF100" s="2"/>
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
@@ -8439,20 +8445,20 @@
         <v>5</v>
       </c>
       <c r="R101" s="1"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
       <c r="U101" s="1"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
       <c r="AA101" s="1"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
       <c r="AD101" s="1"/>
-      <c r="AE101" s="3"/>
-      <c r="AF101" s="3"/>
+      <c r="AE101" s="2"/>
+      <c r="AF101" s="2"/>
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
